--- a/02_PHP&MySQL/02_db_design/db_design.xlsx
+++ b/02_PHP&MySQL/02_db_design/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="първа нормална форма" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,57 @@
     <sheet name="трета нормална форма" sheetId="4" r:id="rId3"/>
     <sheet name="типове данни в проекта за бд" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Името на таблицата е винаги в множествено число
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Всяка таблица има колона - първичен ключ /PK/
+Уникална стойност за всеки ред от таблицата.
+Името й обикновен осъдържа или е 'id'
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Привеждане към първа нормална форма - не трябва да имаме записи/данни/ със запетая, които биха влезли в изчисления и др. операции. Блокира развитието на базата данни - ако искаме да изчислим стойност на рецептата, грамаж, белтъчини, др.</t>
-  </si>
-  <si>
     <t>employees</t>
   </si>
   <si>
@@ -91,12 +129,6 @@
     <t>JBL</t>
   </si>
   <si>
-    <t>Product table following 2NF:</t>
-  </si>
-  <si>
-    <t>Products Category table:</t>
-  </si>
-  <si>
     <t>Brand table:</t>
   </si>
   <si>
@@ -110,27 +142,6 @@
   </si>
   <si>
     <t>pbID</t>
-  </si>
-  <si>
-    <t>! Имената на таблиците са винаги в мнл число</t>
-  </si>
-  <si>
-    <t>PK - уникална стойност, обикновено число</t>
-  </si>
-  <si>
-    <t>забележки</t>
-  </si>
-  <si>
-    <t>!!!ОЦВЕТИ И ПОДРЕДИ</t>
-  </si>
-  <si>
-    <t>ЗАДАЧА ЗА НАКРАЯ РЕЦЕПТИ - ИЗБРОЙ КАКВИ ДАННИ ДА СА ОРГАНИЗИРАНИ</t>
-  </si>
-  <si>
-    <t>ПРОМЕНИ ИМЕНАТА НА ПК</t>
-  </si>
-  <si>
-    <t>ОБЯСНИ КАКВО Е ФК</t>
   </si>
   <si>
     <t>ТИПОВЕ ВРЪЗКИ МЕ/ТАБЛИЦИТЕ</t>
@@ -294,12 +305,33 @@
   <si>
     <t>задача - рецепти, училище, виж други от задачата</t>
   </si>
+  <si>
+    <t>ПЪРВА НОРМАЛНА ФОРМА НА БАЗАТА ДАННИ</t>
+  </si>
+  <si>
+    <t>Привеждане към първа нормална форма. В колоните не трябва да имаме записи/данни/ със запетая.</t>
+  </si>
+  <si>
+    <t>ВТОРА НОРМАЛНА ФОРМА НА БАЗАТА ДАННИ</t>
+  </si>
+  <si>
+    <t>PRODUCTS table</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Привеждане към втора нормална форма.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,16 +347,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,33 +449,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,16 +619,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>289955</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76428</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571895</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>426948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,7 +651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="1280160"/>
+          <a:off x="5768340" y="304800"/>
           <a:ext cx="4557155" cy="2636748"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -724,409 +950,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:5" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C15" s="10">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="D15" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D16" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C17" s="10">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C18" s="10">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7">
-        <v>45</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="C34" s="17">
         <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1136,337 +1408,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>282005</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="2">
+        <v>222008</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="C6" s="2">
+        <v>282007</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8">
-        <v>282005</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C7" s="2">
+        <v>292008</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="8">
-        <v>222008</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C8" s="2">
+        <v>222999</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="8">
-        <v>282007</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>1101</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="8">
-        <v>292008</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>1201</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="8">
-        <v>222999</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
+      <c r="A19" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>282005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C23" s="2">
+        <v>222008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>282007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8">
-        <v>282005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C25" s="2">
+        <v>292008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="8">
-        <v>222008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>1006</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="8">
-        <v>282007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1101</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="8">
-        <v>292008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1201</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="2">
+        <v>222999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="8">
-        <v>222999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>282005</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>222008</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="8" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>282007</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>282005</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>292008</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>222008</v>
-      </c>
-      <c r="B32" s="8" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>222999</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D35" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>282007</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>292008</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>222999</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
